--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>LSCC</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,207 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F8" s="3">
         <v>103500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>102300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>98100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>96000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>101500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>102700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>98600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>95300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>92000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>94100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>104600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>118100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F9" s="3">
         <v>42000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>42300</v>
       </c>
-      <c r="F9" s="3">
-        <v>40400</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>80900</v>
+      </c>
+      <c r="I9" s="3">
         <v>41700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>43100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>52500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>42100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>44100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>42900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>43800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>54600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>59300</v>
+      </c>
+      <c r="F10" s="3">
         <v>61500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>60000</v>
       </c>
-      <c r="F10" s="3">
-        <v>57700</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I10" s="3">
         <v>54300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>58400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>50200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>56500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>51300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>51200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>60800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>63500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F12" s="3">
         <v>20000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>19400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>19700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>19300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>19100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>22800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>23400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>25500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>26700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>27200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>26100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -967,57 +1003,69 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>11900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>17100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>40000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
         <v>3400</v>
@@ -1026,37 +1074,43 @@
         <v>3400</v>
       </c>
       <c r="G15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>4600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>8700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>8900</v>
       </c>
       <c r="N15" s="3">
         <v>8700</v>
       </c>
       <c r="O15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>8500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>84700</v>
+      </c>
+      <c r="F17" s="3">
         <v>86800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>87900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>85600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>97700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>88500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>116300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>99400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>96000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>129400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>102900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>105300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>119100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>14400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-13600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-37400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1176,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F21" s="3">
         <v>24900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>21000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>20800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-24200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>14400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5500</v>
       </c>
       <c r="I22" s="3">
         <v>5000</v>
       </c>
       <c r="J22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="3">
         <v>5100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3900</v>
       </c>
       <c r="M22" s="3">
         <v>4700</v>
       </c>
       <c r="N22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F23" s="3">
         <v>14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-43200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1440,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F26" s="3">
         <v>13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-20200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-42900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F27" s="3">
         <v>13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-20200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-43100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1572,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1616,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1704,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F33" s="3">
         <v>13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-20200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-43100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1836,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F35" s="3">
         <v>13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-20200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-43100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1947,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1965,57 +2139,65 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>118100</v>
+      </c>
+      <c r="F41" s="3">
         <v>97400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>122600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>130400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>119100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>107900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>93700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>99400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>106800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>74400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>97500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>106600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2024,213 +2206,243 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>9600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>9600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>12100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>8000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>10500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F43" s="3">
         <v>47400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>37900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>55600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>60900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>75600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>76600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>65800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>55100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>79000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>86800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>66100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>99600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F44" s="3">
         <v>59700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>65000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>66800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>67100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>66400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>65600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>77900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>79900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>77500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>78500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>77800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>79200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F45" s="3">
         <v>34700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>29000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>27800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>24100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>21700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>25400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>19000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>318700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>262400</v>
+      </c>
+      <c r="F46" s="3">
         <v>239200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>256200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>281800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>284400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>283700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>269700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>280600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>263400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>284400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>268600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>273000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>314700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2273,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F48" s="3">
         <v>64700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>65700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>64600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>34900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>35700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>36400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>37700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>40400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>43200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>49400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>48800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>49500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>271800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>274500</v>
+      </c>
+      <c r="F49" s="3">
         <v>277900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>281300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>284700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>288800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>292500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>296700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>313100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>318800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>320500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>367600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>376500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>388600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2405,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2449,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F52" s="3">
         <v>11600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>13400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>13600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>20400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>20400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>11800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>13200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>14100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2537,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>664200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>612000</v>
+      </c>
+      <c r="F54" s="3">
         <v>593400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>616700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>644700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>623700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>632300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>623200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>644800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>636000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>661500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>697300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>711400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>766900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2599,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2617,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F57" s="3">
         <v>29600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>34300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>33400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>31900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>26200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>30400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>35500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>54400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>62900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>67900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>80900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F58" s="3">
         <v>17200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>17200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>14100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>24500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>22200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>23200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>33800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F59" s="3">
         <v>34600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>31700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>29000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>29200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>31800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>28800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>27700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>43900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>33300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>38000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>42900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>99800</v>
+      </c>
+      <c r="F60" s="3">
         <v>81400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>83100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>70200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>69400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>70900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>86700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>66100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>83600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>129000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>116500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>106300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>157600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F61" s="3">
         <v>139200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>172300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>225700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>251400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>261000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>265700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>299000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>299700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>280400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>287000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>301600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>300900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>59500</v>
+      </c>
+      <c r="F62" s="3">
         <v>63100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>66100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>67700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>44500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>39300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>40200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>34100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>35000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>33800</v>
       </c>
       <c r="M62" s="3">
         <v>35000</v>
       </c>
       <c r="N62" s="3">
+        <v>33800</v>
+      </c>
+      <c r="O62" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>38000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2925,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2969,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3013,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>321200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>284400</v>
+      </c>
+      <c r="F66" s="3">
         <v>283800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>321500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>363600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>365200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>371200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>392600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>399200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>418300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>443200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>438500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>443900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>496500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3075,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3119,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3163,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3207,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3251,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-425100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-433300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-447300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-460800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-469400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-476800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-469700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-476600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-456400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-477900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-470600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-427600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-414600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-406900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3339,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3383,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3427,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>327700</v>
+      </c>
+      <c r="F76" s="3">
         <v>309600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>295200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>281200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>258500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>261100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>230600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>245700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>217700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>218300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>258800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>267500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>270400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3515,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F81" s="3">
         <v>13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-20200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-43100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3626,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F83" s="3">
         <v>8200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>15200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3714,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3758,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3802,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3846,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3890,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F89" s="3">
         <v>18300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>44700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>30900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>24200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>22400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3952,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4040,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4084,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4146,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4190,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4234,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4278,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4322,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-38000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-45300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-15300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-15400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-22200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-10300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4375,83 +4875,95 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-23000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>19400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>LSCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E8" s="3">
         <v>97300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>102300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>96000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>101500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>95300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>104600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>118100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="3">
         <v>39800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>80900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E10" s="3">
         <v>57500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>58400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>63500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E12" s="3">
         <v>21700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>26100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,66 +1026,72 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3400</v>
       </c>
       <c r="F15" s="3">
         <v>3400</v>
@@ -1080,37 +1103,40 @@
         <v>3400</v>
       </c>
       <c r="I15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E17" s="3">
         <v>87600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>87900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>116300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>96000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>129400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>102900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>105300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>119100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E18" s="3">
         <v>9700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,249 +1289,264 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1900</v>
       </c>
       <c r="N20" s="3">
         <v>-1900</v>
       </c>
       <c r="O20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E21" s="3">
         <v>17500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5000</v>
       </c>
       <c r="I22" s="3">
         <v>5000</v>
       </c>
       <c r="J22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>1300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>600</v>
       </c>
       <c r="M24" s="3">
         <v>600</v>
       </c>
       <c r="N24" s="3">
+        <v>600</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1855,99 +1925,105 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1900</v>
       </c>
       <c r="N32" s="3">
         <v>1900</v>
       </c>
       <c r="O32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2141,66 +2227,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E41" s="3">
         <v>176600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>106800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2212,237 +2302,252 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>9600</v>
       </c>
       <c r="K42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="L42" s="3">
         <v>12100</v>
       </c>
       <c r="M42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E43" s="3">
         <v>74100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>75600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>99600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E44" s="3">
         <v>48900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>65000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>66800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>66400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>79900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>78500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>79200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E45" s="3">
         <v>19100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E46" s="3">
         <v>318700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>262400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>256200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>281800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>284400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>283700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>269700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>280600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>263400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>284400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>268600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>273000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>314700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E48" s="3">
         <v>62100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>271200</v>
+      </c>
+      <c r="E49" s="3">
         <v>271800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>274500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>277900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>281300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>284700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>288800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>292500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>296700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>313100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>318800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>320500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>367600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>376500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>388600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>20400</v>
       </c>
       <c r="K52" s="3">
         <v>20400</v>
       </c>
       <c r="L52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="M52" s="3">
         <v>13500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E54" s="3">
         <v>664200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>612000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>593400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>616700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>644700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>623700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>632300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>623200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>644800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>636000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>661500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>697300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>711400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>766900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>44400</v>
+        <v>45800</v>
       </c>
       <c r="E57" s="3">
         <v>44400</v>
       </c>
       <c r="F57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G57" s="3">
         <v>29600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>67900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>80900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>21500</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
         <v>21500</v>
       </c>
       <c r="F58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="G58" s="3">
         <v>17200</v>
       </c>
       <c r="H58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I58" s="3">
         <v>7800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
         <v>27800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E60" s="3">
         <v>93700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>83100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>69400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>129000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>116500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>106300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>157600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E61" s="3">
         <v>170800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>125100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>139200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>172300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>225700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>251400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>261000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>265700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>299000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>299700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>280400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>287000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>301600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E62" s="3">
         <v>56700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>59500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>66100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>67700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E66" s="3">
         <v>321200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>283800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>321500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>363600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>365200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>371200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>392600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>399200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>418300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>443200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>438500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>443900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>496500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-414500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-425100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-433300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-447300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-460800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-469400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-476800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-469700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-476600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-456400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-477900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-470600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-427600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-414600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-406900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>364100</v>
+      </c>
+      <c r="E76" s="3">
         <v>343000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>327700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>309600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>295200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>281200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>258500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>261100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>230600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>245700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>217700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>218300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>258800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>267500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>270400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E89" s="3">
         <v>21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>44700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
         <v>-3900</v>
       </c>
       <c r="F91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E100" s="3">
         <v>44100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>58500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>LSCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E8" s="3">
         <v>100600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>102300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>96000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>104600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>118100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E9" s="3">
         <v>40000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>80900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>54600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E10" s="3">
         <v>60600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>58400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>63500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,52 +946,55 @@
         <v>22400</v>
       </c>
       <c r="E12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F12" s="3">
         <v>21700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>26700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,61 +1046,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1091,10 +1114,10 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3400</v>
       </c>
       <c r="G15" s="3">
         <v>3400</v>
@@ -1106,37 +1129,40 @@
         <v>3400</v>
       </c>
       <c r="J15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E17" s="3">
         <v>88100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>84700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>87900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>97700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>116300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>96000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>129400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>105300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>12500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1292,261 +1326,276 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1900</v>
       </c>
       <c r="O20" s="3">
         <v>-1900</v>
       </c>
       <c r="P20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E21" s="3">
         <v>18200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5000</v>
       </c>
       <c r="J22" s="3">
         <v>5000</v>
       </c>
       <c r="K22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>1300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>600</v>
       </c>
       <c r="N24" s="3">
         <v>600</v>
       </c>
       <c r="O24" s="3">
+        <v>600</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1928,102 +1998,108 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1900</v>
       </c>
       <c r="O32" s="3">
         <v>1900</v>
       </c>
       <c r="P32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E41" s="3">
         <v>165200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>176600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>99400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>97500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>106600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2292,8 +2382,8 @@
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2305,249 +2395,264 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>9600</v>
       </c>
       <c r="L42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="M42" s="3">
         <v>12100</v>
       </c>
       <c r="N42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E43" s="3">
         <v>93200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>74100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>86800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>99600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E44" s="3">
         <v>54100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>48900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>55000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>59700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>65000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>66800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>79900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>78500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>79200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
         <v>18600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E46" s="3">
         <v>331000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>318700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>262400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>239200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>256200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>281800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>284400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>283700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>269700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>280600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>263400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>284400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>268600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>273000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>314700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E48" s="3">
         <v>62600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E49" s="3">
         <v>271200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>271800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>274500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>277900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>281300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>284700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>288800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>292500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>296700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>313100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>318800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>320500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>367600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>376500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>388600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E52" s="3">
         <v>11200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>20400</v>
       </c>
       <c r="L52" s="3">
         <v>20400</v>
       </c>
       <c r="M52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="N52" s="3">
         <v>13500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>682400</v>
+      </c>
+      <c r="E54" s="3">
         <v>676000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>664200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>612000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>593400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>616700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>644700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>623700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>632300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>623200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>644800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>636000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>661500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>697300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>711400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>766900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>45800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>44400</v>
       </c>
       <c r="F57" s="3">
         <v>44400</v>
       </c>
       <c r="G57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="H57" s="3">
         <v>29600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>62900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>80900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>21500</v>
       </c>
       <c r="F58" s="3">
         <v>21500</v>
       </c>
       <c r="G58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="H58" s="3">
         <v>17200</v>
       </c>
       <c r="I58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J58" s="3">
         <v>7800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E59" s="3">
         <v>40700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E60" s="3">
         <v>90500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>69400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>86700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>129000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>116500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>106300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>157600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E61" s="3">
         <v>166500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>170800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>125100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>139200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>172300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>225700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>251400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>261000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>265700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>299000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>299700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>280400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>287000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>301600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E62" s="3">
         <v>54900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>66100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>67700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E66" s="3">
         <v>311900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>321200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>284400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>283800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>321500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>363600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>365200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>371200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>392600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>399200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>418300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>443200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>438500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>443900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>496500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-401900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-414500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-425100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-433300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-447300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-460800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-469400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-476800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-469700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-476600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-456400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-477900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-470600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-427600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-414600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-406900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>376900</v>
+      </c>
+      <c r="E76" s="3">
         <v>364100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>343000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>327700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>309600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>295200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>281200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>258500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>261100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>230600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>245700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>217700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>218300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>258800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>267500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>270400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E89" s="3">
         <v>15800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4626,52 +4847,55 @@
         <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
         <v>-3900</v>
       </c>
       <c r="G91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-45300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>LSCC</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -656,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +662,271 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E8" s="3">
         <v>103000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>102300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>96000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>102700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>104600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>118100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E9" s="3">
         <v>40700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>80900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>54600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E10" s="3">
         <v>62300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>63500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="E12" s="3">
         <v>22400</v>
       </c>
       <c r="F12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G12" s="3">
         <v>21700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>26700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>26100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,78 +1063,84 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
         <v>2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3400</v>
       </c>
       <c r="H15" s="3">
         <v>3400</v>
@@ -1132,37 +1152,40 @@
         <v>3400</v>
       </c>
       <c r="K15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E17" s="3">
         <v>90200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>88100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>87600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>87900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>116300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>96000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>129400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>102900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>105300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>119100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,13 +1344,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1329,105 +1360,111 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1900</v>
       </c>
       <c r="P20" s="3">
         <v>-1900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E21" s="3">
         <v>18600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1435,167 +1472,176 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5000</v>
       </c>
       <c r="K22" s="3">
         <v>5000</v>
       </c>
       <c r="L22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E23" s="3">
         <v>12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>1300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>600</v>
       </c>
       <c r="O24" s="3">
         <v>600</v>
       </c>
       <c r="P24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1930,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1986,13 +2050,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2001,105 +2068,111 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1900</v>
       </c>
       <c r="P32" s="3">
         <v>1900</v>
       </c>
       <c r="Q32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2154,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2293,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2315,8 +2398,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2324,66 +2408,69 @@
         <v>182300</v>
       </c>
       <c r="E41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="F41" s="3">
         <v>165200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>176600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>130400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>99400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>97500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>106600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>91</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2398,261 +2485,276 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>9600</v>
       </c>
       <c r="M42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="N42" s="3">
         <v>12100</v>
       </c>
       <c r="O42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="P42" s="3">
         <v>5000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E43" s="3">
         <v>78100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>74100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>76600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>99600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E44" s="3">
         <v>59500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>48900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>55000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>59700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>65000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>66800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>79900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>78500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>79200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E45" s="3">
         <v>19100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>333800</v>
+      </c>
+      <c r="E46" s="3">
         <v>339000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>331000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>262400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>239200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>256200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>281800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>284400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>283700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>269700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>280600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>263400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>284400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>268600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>273000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>314700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2707,120 +2809,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E48" s="3">
         <v>61400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>48800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>273800</v>
+      </c>
+      <c r="E49" s="3">
         <v>271000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>271200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>271800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>274500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>277900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>281300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>284700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>288800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>292500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>296700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>313100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>318800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>320500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>367600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>376500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>388600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2875,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2931,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
         <v>11100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>20400</v>
       </c>
       <c r="M52" s="3">
         <v>20400</v>
       </c>
       <c r="N52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="O52" s="3">
         <v>13500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3043,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>680100</v>
+      </c>
+      <c r="E54" s="3">
         <v>682400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>676000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>664200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>612000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>593400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>616700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>644700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>623700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>632300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>623200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>644800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>636000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>661500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>697300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>711400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>766900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3121,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3143,344 +3270,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E57" s="3">
         <v>35700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>44400</v>
       </c>
       <c r="G57" s="3">
         <v>44400</v>
       </c>
       <c r="H57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="I57" s="3">
         <v>29600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>62900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>67900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>80900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>21500</v>
       </c>
       <c r="G58" s="3">
         <v>21500</v>
       </c>
       <c r="H58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="I58" s="3">
         <v>17200</v>
       </c>
       <c r="J58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K58" s="3">
         <v>7800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E59" s="3">
         <v>43700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>42900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E60" s="3">
         <v>87800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>69400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>66100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>129000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>116500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>106300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>157600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E61" s="3">
         <v>162200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>166500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>170800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>125100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>139200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>172300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>225700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>251400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>261000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>265700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>299000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>299700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>280400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>287000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>301600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E62" s="3">
         <v>55500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>66100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3535,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3591,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3647,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E66" s="3">
         <v>305500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>311900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>321200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>284400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>283800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>321500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>363600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>365200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>371200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>392600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>399200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>418300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>443200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>438500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>443900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>496500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3725,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3781,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3837,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3893,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3949,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-401900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-414500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-425100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-433300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-447300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-460800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-469400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-476800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-469700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-476600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-456400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-477900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-470600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-427600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-414600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-406900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4061,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4117,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4173,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>384400</v>
+      </c>
+      <c r="E76" s="3">
         <v>376900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>364100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>343000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>327700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>309600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>295200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>281200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>258500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>261100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>230600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>245700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>217700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>218300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>258800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>267500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>270400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4285,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4424,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4536,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4592,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4648,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4704,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4760,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E89" s="3">
         <v>32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4838,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
         <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
         <v>-3900</v>
       </c>
       <c r="H91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4950,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5006,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5084,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5140,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5196,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5252,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5308,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>17100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,271 +662,283 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E8" s="3">
         <v>107200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>103500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>102300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>96000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>95300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>104600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>118100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E9" s="3">
         <v>42300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>54600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E10" s="3">
         <v>64900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>58400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>63500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +960,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E12" s="3">
         <v>22600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>22400</v>
       </c>
       <c r="F12" s="3">
         <v>22400</v>
       </c>
       <c r="G12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H12" s="3">
         <v>21700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>26100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,84 +1082,90 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>40000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
       </c>
       <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
         <v>2700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3400</v>
       </c>
       <c r="I15" s="3">
         <v>3400</v>
@@ -1155,37 +1177,40 @@
         <v>3400</v>
       </c>
       <c r="L15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1229,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E17" s="3">
         <v>89800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>88100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>87600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>87900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>96000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>129400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>102900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>105300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>119100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E18" s="3">
         <v>17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-37400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,17 +1377,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1363,285 +1396,300 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q20" s="3">
         <v>-1900</v>
       </c>
       <c r="R20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E21" s="3">
         <v>23100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5000</v>
       </c>
       <c r="L22" s="3">
         <v>5000</v>
       </c>
       <c r="M22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E23" s="3">
         <v>16400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-43200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>1300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>600</v>
       </c>
       <c r="P24" s="3">
         <v>600</v>
       </c>
       <c r="Q24" s="3">
+        <v>600</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,126 +1747,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E26" s="3">
         <v>16000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-43100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2053,17 +2119,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2071,108 +2140,114 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1900</v>
       </c>
       <c r="Q32" s="3">
         <v>1900</v>
       </c>
       <c r="R32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-43100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2230,131 +2305,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-43100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2399,67 +2484,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>182300</v>
+        <v>185300</v>
       </c>
       <c r="E41" s="3">
         <v>182300</v>
       </c>
       <c r="F41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="G41" s="3">
         <v>165200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>176600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>118100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>119100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>99400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>97500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>106600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2488,273 +2577,288 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>9600</v>
       </c>
       <c r="N42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="O42" s="3">
         <v>12100</v>
       </c>
       <c r="P42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>5000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E43" s="3">
         <v>64600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>75600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>79000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>99600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E44" s="3">
         <v>64600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>54100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>55000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>65000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>79900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>78500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>79200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
         <v>22300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E46" s="3">
         <v>333800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>339000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>318700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>262400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>256200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>281800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>284400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>283700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>269700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>280600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>263400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>284400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>268600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>273000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>314700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2812,126 +2916,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E48" s="3">
         <v>61800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>48800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E49" s="3">
         <v>273800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>271000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>271200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>271800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>274500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>277900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>281300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>284700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>288800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>292500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>296700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>313100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>318800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>320500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>367600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>376500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>388600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3048,67 +3164,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E52" s="3">
         <v>10500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>20400</v>
       </c>
       <c r="N52" s="3">
         <v>20400</v>
       </c>
       <c r="O52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="P52" s="3">
         <v>13500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3166,67 +3288,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>687600</v>
+      </c>
+      <c r="E54" s="3">
         <v>680100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>682400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>676000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>664200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>612000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>593400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>616700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>644700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>623700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>632300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>623200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>644800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>636000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>661500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>697300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>711400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>766900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3271,362 +3400,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E57" s="3">
         <v>27500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>44400</v>
       </c>
       <c r="H57" s="3">
         <v>44400</v>
       </c>
       <c r="I57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="J57" s="3">
         <v>29600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>62900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>67900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>80900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E58" s="3">
         <v>12800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>21500</v>
       </c>
       <c r="H58" s="3">
         <v>21500</v>
       </c>
       <c r="I58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="J58" s="3">
         <v>17200</v>
       </c>
       <c r="K58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="L58" s="3">
         <v>7800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>33800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E59" s="3">
         <v>39400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>42900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E60" s="3">
         <v>79700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>83100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>86700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>66100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>129000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>116500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>106300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>157600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>153600</v>
+      </c>
+      <c r="E61" s="3">
         <v>157900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>162200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>166500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>170800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>125100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>139200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>172300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>225700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>251400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>261000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>265700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>299000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>299700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>280400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>287000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>301600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>300900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E62" s="3">
         <v>58000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>56700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>59500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>66100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>67700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3802,67 +3956,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E66" s="3">
         <v>295600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>305500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>311900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>321200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>284400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>283800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>321500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>363600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>365200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>371200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>392600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>399200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>418300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>443200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>438500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>443900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>496500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4120,67 +4290,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-367100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-401900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-414500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-425100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-433300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-447300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-460800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-469400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-476800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-469700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-476600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-456400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-477900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-470600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-427600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-414600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-406900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4356,67 +4538,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>391600</v>
+      </c>
+      <c r="E76" s="3">
         <v>384400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>376900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>364100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>327700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>309600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>295200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>281200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>258500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>261100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>230600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>245700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>217700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>218300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>258800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>267500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>270400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4474,131 +4662,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-43100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4620,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4629,58 +4827,61 @@
         <v>5900</v>
       </c>
       <c r="E83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4974,67 +5187,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E89" s="3">
         <v>22700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5056,67 +5275,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-3000</v>
       </c>
       <c r="F91" s="3">
         <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
         <v>-3900</v>
       </c>
       <c r="I91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5233,67 +5459,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5374,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5551,181 +5793,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,283 +662,296 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E8" s="3">
         <v>115700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>107200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>103500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>96000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>102700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>95300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>92000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>94100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>104600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>118100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E9" s="3">
         <v>45100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>54600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E10" s="3">
         <v>70600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>58400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>63500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,70 +974,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E12" s="3">
         <v>23900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>22400</v>
       </c>
       <c r="G12" s="3">
         <v>22400</v>
       </c>
       <c r="H12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I12" s="3">
         <v>21700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>26700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>26100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,61 +1114,64 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,19 +1179,19 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
       </c>
       <c r="H15" s="3">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
         <v>2700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3400</v>
       </c>
       <c r="J15" s="3">
         <v>3400</v>
@@ -1180,37 +1203,40 @@
         <v>3400</v>
       </c>
       <c r="M15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E17" s="3">
         <v>95100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>89800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>87600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>84700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>99400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>96000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>129400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>102900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>105300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E18" s="3">
         <v>20600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-37400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1387,11 +1421,11 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1399,111 +1433,117 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1900</v>
       </c>
       <c r="R20" s="3">
         <v>-1900</v>
       </c>
       <c r="S20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E21" s="3">
         <v>26400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-24200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1511,185 +1551,194 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5000</v>
       </c>
       <c r="M22" s="3">
         <v>5000</v>
       </c>
       <c r="N22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O22" s="3">
         <v>5500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>19800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-43200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>1300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>600</v>
       </c>
       <c r="Q24" s="3">
         <v>600</v>
       </c>
       <c r="R24" s="3">
+        <v>600</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1750,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E26" s="3">
         <v>18800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-42900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>18800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-43100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2131,11 +2201,11 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2143,111 +2213,117 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1900</v>
       </c>
       <c r="R32" s="3">
         <v>1900</v>
       </c>
       <c r="S32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>18800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-43100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2308,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>18800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-43100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2485,70 +2571,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E41" s="3">
         <v>185300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>182300</v>
       </c>
       <c r="F41" s="3">
         <v>182300</v>
       </c>
       <c r="G41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="H41" s="3">
         <v>165200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>97400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>99400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>97500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>106600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2580,285 +2670,300 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>9600</v>
       </c>
       <c r="O42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="P42" s="3">
         <v>12100</v>
       </c>
       <c r="Q42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="R42" s="3">
         <v>5000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E43" s="3">
         <v>77000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>78100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>75600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>76600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>79000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>86800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>99600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E44" s="3">
         <v>59500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>64600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>54100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>55000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>67100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>66400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>79900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>78500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>79200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>346500</v>
+      </c>
+      <c r="E46" s="3">
         <v>336900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>333800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>339000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>331000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>318700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>262400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>256200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>281800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>284400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>283700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>269700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>280600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>263400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>284400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>268600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>273000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>314700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2919,132 +3024,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E48" s="3">
         <v>66100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>48800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>49500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E49" s="3">
         <v>274800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>273800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>271000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>271200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>271800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>274500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>277900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>281300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>284700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>288800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>292500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>296700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>313100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>318800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>320500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>367600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>376500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>388600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3167,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>20400</v>
       </c>
       <c r="O52" s="3">
         <v>20400</v>
       </c>
       <c r="P52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>13500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3291,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>693600</v>
+      </c>
+      <c r="E54" s="3">
         <v>687600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>680100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>682400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>676000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>664200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>612000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>593400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>616700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>644700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>623700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>632300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>623200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>644800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>636000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>661500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>697300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>711400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>766900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3401,380 +3531,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E57" s="3">
         <v>27400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>44400</v>
       </c>
       <c r="I57" s="3">
         <v>44400</v>
       </c>
       <c r="J57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K57" s="3">
         <v>29600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>54400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>62900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>67900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>80900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E58" s="3">
         <v>17100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>21500</v>
       </c>
       <c r="I58" s="3">
         <v>21500</v>
       </c>
       <c r="J58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="K58" s="3">
         <v>17200</v>
       </c>
       <c r="L58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M58" s="3">
         <v>7800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>33800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E59" s="3">
         <v>36200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>38000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>42900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E60" s="3">
         <v>80700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>79700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>69400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>70900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>86700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>66100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>129000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>116500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>106300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>157600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E61" s="3">
         <v>153600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>157900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>162200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>166500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>170800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>125100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>139200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>172300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>225700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>251400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>261000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>265700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>299000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>299700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>280400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>287000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>301600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E62" s="3">
         <v>61700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>58000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>59500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>67700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>38000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3959,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E66" s="3">
         <v>296000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>295600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>305500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>311900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>321200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>284400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>283800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>321500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>363600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>365200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>371200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>392600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>399200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>418300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>443200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>438500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>443900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>496500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4293,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-345200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-367100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-385900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-401900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-414500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-425100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-433300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-447300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-460800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-469400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-476800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-469700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-476600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-456400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-477900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-470600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-427600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-414600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-406900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4541,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E76" s="3">
         <v>391600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>384400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>376900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>364100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>343000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>327700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>309600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>295200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>281200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>258500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>261100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>230600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>245700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>217700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>218300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>258800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>267500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>270400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4665,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>18800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-43100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4830,58 +5029,61 @@
         <v>5900</v>
       </c>
       <c r="F83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5190,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E89" s="3">
         <v>29400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5276,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-3000</v>
       </c>
       <c r="G91" s="3">
         <v>-3000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="I91" s="3">
         <v>-3900</v>
       </c>
       <c r="J91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5462,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5796,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-22500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-38000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,296 +662,309 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E8" s="3">
         <v>125900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>115700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>107200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>96000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>102700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>95300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>92000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>94100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>104600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>118100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E9" s="3">
         <v>48700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>80900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>43100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>54600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E10" s="3">
         <v>77200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>58400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>60800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>63500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E12" s="3">
         <v>27200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>22400</v>
       </c>
       <c r="H12" s="3">
         <v>22400</v>
       </c>
       <c r="I12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J12" s="3">
         <v>21700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>25500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>26700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>26100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1117,61 +1137,64 @@
         <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,19 +1205,19 @@
         <v>800</v>
       </c>
       <c r="F15" s="3">
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
         <v>700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
         <v>2700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3400</v>
       </c>
       <c r="K15" s="3">
         <v>3400</v>
@@ -1206,37 +1229,40 @@
         <v>3400</v>
       </c>
       <c r="N15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E17" s="3">
         <v>102600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>95100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>87600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>84700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>99400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>96000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>129400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>102900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>105300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E18" s="3">
         <v>23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-37400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1412,8 +1445,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1424,11 +1458,11 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1436,114 +1470,120 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1900</v>
       </c>
       <c r="S20" s="3">
         <v>-1900</v>
       </c>
       <c r="T20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E21" s="3">
         <v>29000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-24200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1554,191 +1594,200 @@
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5000</v>
       </c>
       <c r="N22" s="3">
         <v>5000</v>
       </c>
       <c r="O22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P22" s="3">
         <v>5500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E23" s="3">
         <v>22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-43200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>600</v>
       </c>
       <c r="R24" s="3">
         <v>600</v>
       </c>
       <c r="S24" s="3">
+        <v>600</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E26" s="3">
         <v>21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-42900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-43100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2259,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2204,11 +2274,11 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2216,114 +2286,120 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1900</v>
       </c>
       <c r="S32" s="3">
         <v>1900</v>
       </c>
       <c r="T32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-43100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2387,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-43100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2572,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E41" s="3">
         <v>187700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>185300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>182300</v>
       </c>
       <c r="G41" s="3">
         <v>182300</v>
       </c>
       <c r="H41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="I41" s="3">
         <v>165200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>176600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>118100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>130400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>107900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>99400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>106800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>74400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>97500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>106600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,297 +2763,312 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <v>9600</v>
       </c>
       <c r="P42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="Q42" s="3">
         <v>12100</v>
       </c>
       <c r="R42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="S42" s="3">
         <v>5000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E43" s="3">
         <v>76500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>78100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>75600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>76600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>79000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>86800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>99600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E44" s="3">
         <v>65600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>59500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>54100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>55000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>67100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>79900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>78500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>79200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>351800</v>
+      </c>
+      <c r="E46" s="3">
         <v>346500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>336900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>333800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>339000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>331000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>318700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>262400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>239200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>256200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>281800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>284400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>283700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>269700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>280600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>263400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>284400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>268600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>273000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>314700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3027,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E48" s="3">
         <v>63900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>43200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>48800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>273200</v>
+      </c>
+      <c r="E49" s="3">
         <v>274000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>274800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>273800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>271000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>271200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>271800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>274500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>277900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>281300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>284700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>288800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>292500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>296700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>313100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>318800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>320500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>367600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>376500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>388600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3287,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>20400</v>
       </c>
       <c r="P52" s="3">
         <v>20400</v>
       </c>
       <c r="Q52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="R52" s="3">
         <v>13500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3417,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>704800</v>
+      </c>
+      <c r="E54" s="3">
         <v>693600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>687600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>680100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>682400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>676000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>664200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>612000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>593400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>616700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>644700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>623700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>632300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>623200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>644800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>636000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>661500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>697300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>711400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>766900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3532,73 +3662,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E57" s="3">
         <v>34500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>44400</v>
       </c>
       <c r="J57" s="3">
         <v>44400</v>
       </c>
       <c r="K57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="L57" s="3">
         <v>29600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>54400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>62900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>67900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>80900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3606,324 +3740,339 @@
         <v>17200</v>
       </c>
       <c r="E58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F58" s="3">
         <v>17100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>21500</v>
       </c>
       <c r="J58" s="3">
         <v>21500</v>
       </c>
       <c r="K58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="L58" s="3">
         <v>17200</v>
       </c>
       <c r="M58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="N58" s="3">
         <v>7800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>33800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
         <v>36900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>42900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E60" s="3">
         <v>88600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>79700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>69400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>86700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>66100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>129000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>116500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>106300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>157600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E61" s="3">
         <v>149400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>153600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>157900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>162200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>166500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>170800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>125100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>139200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>172300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>225700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>251400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>261000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>265700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>299000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>299700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>280400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>287000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>301600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E62" s="3">
         <v>58300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>59500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>67700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4117,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E66" s="3">
         <v>296200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>296000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>295600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>305500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>311900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>321200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>284400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>283800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>321500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>363600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>365200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>371200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>392600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>399200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>418300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>443200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>438500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>443900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>496500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4467,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-318500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-345200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-367100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-385900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-401900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-414500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-425100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-433300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-447300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-460800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-469400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-476800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-469700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-476600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-456400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-477900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-470600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-427600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-414600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-406900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4727,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E76" s="3">
         <v>397300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>391600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>384400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>376900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>364100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>343000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>327700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>309600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>295200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>281200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>258500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>261100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>230600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>245700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>217700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>218300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>258800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>267500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>270400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4857,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-43100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5017,13 +5215,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E83" s="3">
         <v>5900</v>
@@ -5032,58 +5231,61 @@
         <v>5900</v>
       </c>
       <c r="G83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5407,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E89" s="3">
         <v>41300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>22400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5497,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3000</v>
       </c>
       <c r="H91" s="3">
         <v>-3000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="J91" s="3">
         <v>-3900</v>
       </c>
       <c r="K91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5692,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6042,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-38000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-45300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,309 +662,322 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E8" s="3">
         <v>131900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>115700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>107200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>97300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>102300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>96000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>101500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>102700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>95300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>92000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>94100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>104600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>118100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E9" s="3">
         <v>49100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>80900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>43800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>54600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E10" s="3">
         <v>82800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>77200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>58400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>63500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
         <v>28500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>22400</v>
       </c>
       <c r="I12" s="3">
         <v>22400</v>
       </c>
       <c r="J12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K12" s="3">
         <v>21700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>25500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>26700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>26100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,13 +1142,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1140,66 +1160,69 @@
         <v>200</v>
       </c>
       <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>40000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -1208,19 +1231,19 @@
         <v>800</v>
       </c>
       <c r="G15" s="3">
+        <v>800</v>
+      </c>
+      <c r="H15" s="3">
         <v>700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3400</v>
       </c>
       <c r="L15" s="3">
         <v>3400</v>
@@ -1232,37 +1255,40 @@
         <v>3400</v>
       </c>
       <c r="O15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E17" s="3">
         <v>104900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>89800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>90200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>87600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>97700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>99400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>96000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>129400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>102900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>105300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>119100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E18" s="3">
         <v>27000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-37400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1461,11 +1495,11 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1473,117 +1507,123 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1900</v>
       </c>
       <c r="T20" s="3">
         <v>-1900</v>
       </c>
       <c r="U20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E21" s="3">
         <v>33000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-24200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1597,197 +1637,206 @@
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
       </c>
       <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5000</v>
       </c>
       <c r="O22" s="3">
         <v>5000</v>
       </c>
       <c r="P22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E23" s="3">
         <v>26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-43200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>1300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>600</v>
       </c>
       <c r="S24" s="3">
         <v>600</v>
       </c>
       <c r="T24" s="3">
+        <v>600</v>
+      </c>
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E26" s="3">
         <v>26700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-42900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E27" s="3">
         <v>26700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-43100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2277,11 +2347,11 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2289,117 +2359,123 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1900</v>
       </c>
       <c r="T32" s="3">
         <v>1900</v>
       </c>
       <c r="U32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E33" s="3">
         <v>26700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-43100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E35" s="3">
         <v>26700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-43100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2659,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E41" s="3">
         <v>181500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>187700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>185300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>182300</v>
       </c>
       <c r="H41" s="3">
         <v>182300</v>
       </c>
       <c r="I41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="J41" s="3">
         <v>165200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>176600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>99400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>106800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>74400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>97500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>106600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2766,309 +2856,324 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>9600</v>
       </c>
       <c r="Q42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="R42" s="3">
         <v>12100</v>
       </c>
       <c r="S42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="T42" s="3">
         <v>5000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E43" s="3">
         <v>84800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>75600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>76600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>79000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>86800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>99600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E44" s="3">
         <v>66100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>65600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>59500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>54100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>55000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>66800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>67100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>66400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>79900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>78500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>79200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>301400</v>
+      </c>
+      <c r="E46" s="3">
         <v>351800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>346500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>336900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>333800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>339000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>331000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>318700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>262400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>239200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>256200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>281800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>284400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>283700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>269700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>280600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>263400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>284400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>268600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>273000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>314700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3135,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E48" s="3">
         <v>62100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>43200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>49400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>48800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>345100</v>
+      </c>
+      <c r="E49" s="3">
         <v>273200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>274000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>274800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>273800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>271000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>271200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>271800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>274500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>277900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>281300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>284700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>288800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>292500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>296700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>313100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>318800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>320500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>367600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>376500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>388600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3407,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E52" s="3">
         <v>17800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>20400</v>
       </c>
       <c r="Q52" s="3">
         <v>20400</v>
       </c>
       <c r="R52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="S52" s="3">
         <v>13500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>726500</v>
+      </c>
+      <c r="E54" s="3">
         <v>704800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>693600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>687600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>680100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>682400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>676000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>664200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>612000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>593400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>616700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>644700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>623700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>632300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>623200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>644800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>636000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>661500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>697300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>711400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>766900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3663,76 +3793,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E57" s="3">
         <v>36300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>44400</v>
       </c>
       <c r="K57" s="3">
         <v>44400</v>
       </c>
       <c r="L57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="M57" s="3">
         <v>29600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>54400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>62900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>67900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>80900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3743,336 +3877,351 @@
         <v>17200</v>
       </c>
       <c r="F58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G58" s="3">
         <v>17100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>21500</v>
       </c>
       <c r="K58" s="3">
         <v>21500</v>
       </c>
       <c r="L58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="M58" s="3">
         <v>17200</v>
       </c>
       <c r="N58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="O58" s="3">
         <v>7800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>33800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>43900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>42900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E60" s="3">
         <v>103400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>79700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>99800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>70200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>86700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>66100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>129000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>116500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>106300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>157600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E61" s="3">
         <v>145100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>149400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>153600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>157900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>162200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>166500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>170800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>125100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>139200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>172300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>225700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>251400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>261000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>265700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>299000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>299700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>280400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>287000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>301600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>300900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E62" s="3">
         <v>63500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>58300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>56700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>59500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>67700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E66" s="3">
         <v>311900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>296200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>296000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>295600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>305500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>311900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>321200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>284400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>283800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>321500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>363600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>365200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>371200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>392600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>399200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>418300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>443200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>438500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>443900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>496500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-290000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-318500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-345200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-367100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-385900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-401900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-414500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-425100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-433300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-447300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-460800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-469400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-476800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-469700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-476600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-456400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-477900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-470600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-427600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-414600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-406900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>411600</v>
+      </c>
+      <c r="E76" s="3">
         <v>392900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>397300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>391600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>384400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>376900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>364100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>343000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>327700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>309600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>295200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>281200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>258500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>261100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>230600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>245700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>217700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>218300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>258800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>267500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>270400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E81" s="3">
         <v>26700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-43100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5216,16 +5414,17 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5900</v>
       </c>
       <c r="F83" s="3">
         <v>5900</v>
@@ -5234,58 +5433,61 @@
         <v>5900</v>
       </c>
       <c r="H83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E89" s="3">
         <v>45400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>22400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5718,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5727,67 +5948,70 @@
         <v>-2700</v>
       </c>
       <c r="E91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3000</v>
       </c>
       <c r="I91" s="3">
         <v>-3000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="K91" s="3">
         <v>-3900</v>
       </c>
       <c r="L91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6288,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-22500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>44100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6365,131 +6614,137 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,322 +662,334 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E8" s="3">
         <v>141800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>131900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>115700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>107200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>103000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>97300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>96000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>101500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>102700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>98600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>95300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>92000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>94100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>104600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>118100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E9" s="3">
         <v>50700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>43800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>54600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E10" s="3">
         <v>91100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>77200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>58400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>60800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>63500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E12" s="3">
         <v>30000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>22400</v>
       </c>
       <c r="J12" s="3">
         <v>22400</v>
       </c>
       <c r="K12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="L12" s="3">
         <v>21700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>25500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>26700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>27200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>26100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,16 +1161,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
       </c>
       <c r="F14" s="3">
         <v>200</v>
@@ -1163,69 +1182,72 @@
         <v>200</v>
       </c>
       <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>40000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -1234,19 +1256,19 @@
         <v>800</v>
       </c>
       <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3">
         <v>700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
       </c>
       <c r="K15" s="3">
+        <v>600</v>
+      </c>
+      <c r="L15" s="3">
         <v>2700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3400</v>
       </c>
       <c r="M15" s="3">
         <v>3400</v>
@@ -1258,37 +1280,40 @@
         <v>3400</v>
       </c>
       <c r="P15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E17" s="3">
         <v>112000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>95100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>89800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>90200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>85600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>97700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>99400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>96000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>129400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>102900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>105300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>119100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E18" s="3">
         <v>29800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-37400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,13 +1512,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1498,11 +1531,11 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1510,120 +1543,126 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1900</v>
       </c>
       <c r="U20" s="3">
         <v>-1900</v>
       </c>
       <c r="V20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E21" s="3">
         <v>36400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-24200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>13700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,203 +1679,212 @@
         <v>700</v>
       </c>
       <c r="H22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>800</v>
       </c>
       <c r="J22" s="3">
+        <v>800</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5000</v>
       </c>
       <c r="P22" s="3">
         <v>5000</v>
       </c>
       <c r="Q22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R22" s="3">
         <v>5500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E23" s="3">
         <v>29100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-43200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>1300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>600</v>
       </c>
       <c r="T24" s="3">
         <v>600</v>
       </c>
       <c r="U24" s="3">
+        <v>600</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E26" s="3">
         <v>28500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-42900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E27" s="3">
         <v>28500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-43100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2332,13 +2398,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -2350,11 +2419,11 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2362,120 +2431,126 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1900</v>
       </c>
       <c r="U32" s="3">
         <v>1900</v>
       </c>
       <c r="V32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E33" s="3">
         <v>28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-43100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E35" s="3">
         <v>28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-43100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E41" s="3">
         <v>131600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>181500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>187700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>185300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>182300</v>
       </c>
       <c r="I41" s="3">
         <v>182300</v>
       </c>
       <c r="J41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K41" s="3">
         <v>165200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>97400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>107900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>99400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>106800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>74400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>97500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>106600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2859,321 +2948,336 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <v>9600</v>
       </c>
       <c r="R42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="S42" s="3">
         <v>12100</v>
       </c>
       <c r="T42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="U42" s="3">
         <v>5000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E43" s="3">
         <v>85500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>76500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>64900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>75600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>76600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>79000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>86800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>99600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E44" s="3">
         <v>67600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>66100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>65600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>59500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>64600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>54100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>55000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>67100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>65600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>79900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>78500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>79200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>299200</v>
+      </c>
+      <c r="E46" s="3">
         <v>301400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>351800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>346500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>336900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>333800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>339000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>331000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>318700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>262400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>239200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>256200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>281800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>284400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>283700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>269700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>280600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>263400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>284400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>268600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>273000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>314700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E48" s="3">
         <v>61900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>64600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>43200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>48800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>49500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E49" s="3">
         <v>345100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>273200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>274000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>274800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>273800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>271000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>271200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>271800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>274500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>277900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>281300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>284700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>288800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>292500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>296700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>313100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>318800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>320500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>367600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>376500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>388600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>20400</v>
       </c>
       <c r="R52" s="3">
         <v>20400</v>
       </c>
       <c r="S52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="T52" s="3">
         <v>13500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>720900</v>
+      </c>
+      <c r="E54" s="3">
         <v>726500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>704800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>693600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>687600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>680100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>682400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>676000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>664200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>612000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>593400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>616700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>644700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>623700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>632300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>623200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>644800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>636000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>661500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>697300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>711400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>766900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3794,79 +3923,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E57" s="3">
         <v>34600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>44400</v>
       </c>
       <c r="L57" s="3">
         <v>44400</v>
       </c>
       <c r="M57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="N57" s="3">
         <v>29600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>54400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>62900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>67900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>80900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3880,348 +4013,363 @@
         <v>17200</v>
       </c>
       <c r="G58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H58" s="3">
         <v>17100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>21500</v>
       </c>
       <c r="L58" s="3">
         <v>21500</v>
       </c>
       <c r="M58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="N58" s="3">
         <v>17200</v>
       </c>
       <c r="O58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="P58" s="3">
         <v>7800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>33800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E59" s="3">
         <v>54400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>43900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>38000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>42900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E60" s="3">
         <v>106200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>99800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>69400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>86700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>66100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>129000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>116500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>106300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>157600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E61" s="3">
         <v>140800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>145100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>149400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>153600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>157900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>162200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>166500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>170800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>125100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>139200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>172300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>225700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>251400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>261000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>265700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>299000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>299700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>280400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>287000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>301600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>300900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E62" s="3">
         <v>67900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>56700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>59500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>67700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>38000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>299400</v>
+      </c>
+      <c r="E66" s="3">
         <v>314900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>311900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>296200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>296000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>295600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>305500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>311900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>321200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>284400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>283800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>321500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>363600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>365200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>371200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>392600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>399200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>418300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>443200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>438500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>443900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>496500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-290000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-318500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-345200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-367100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-385900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-401900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-414500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-425100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-433300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-447300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-460800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-469400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-476800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-469700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-476600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-456400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-477900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-470600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-427600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-414600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-406900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>421600</v>
+      </c>
+      <c r="E76" s="3">
         <v>411600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>392900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>397300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>391600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>384400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>376900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>364100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>343000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>327700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>309600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>295200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>281200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>258500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>261100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>230600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>245700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>217700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>218300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>258800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>267500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>270400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E81" s="3">
         <v>28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-43100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5415,19 +5612,20 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5900</v>
       </c>
       <c r="G83" s="3">
         <v>5900</v>
@@ -5436,58 +5634,61 @@
         <v>5900</v>
       </c>
       <c r="I83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E89" s="3">
         <v>51700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>22400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-4400</v>
       </c>
       <c r="E91" s="3">
         <v>-2700</v>
       </c>
       <c r="F91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3000</v>
       </c>
       <c r="J91" s="3">
         <v>-3000</v>
       </c>
       <c r="K91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="L91" s="3">
         <v>-3900</v>
       </c>
       <c r="M91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-73100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6321,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>25600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,334 +662,347 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E8" s="3">
         <v>150500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>141800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>131900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>125900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>107200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>103000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>97300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>102300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>96000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>102700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>98600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>95300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>92000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>94100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>104600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>118100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E9" s="3">
         <v>49700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>42900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>43800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>54600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E10" s="3">
         <v>100800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>77200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>58400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>53400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>60800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>63500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1029,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E12" s="3">
         <v>32300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>22400</v>
       </c>
       <c r="K12" s="3">
         <v>22400</v>
       </c>
       <c r="L12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="M12" s="3">
         <v>21700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>25500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>26700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>27200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>26100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,19 +1181,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>200</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
@@ -1185,72 +1205,75 @@
         <v>200</v>
       </c>
       <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>40000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>7200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>1400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
@@ -1259,19 +1282,19 @@
         <v>800</v>
       </c>
       <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
       </c>
       <c r="L15" s="3">
+        <v>600</v>
+      </c>
+      <c r="M15" s="3">
         <v>2700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3400</v>
       </c>
       <c r="N15" s="3">
         <v>3400</v>
@@ -1283,37 +1306,40 @@
         <v>3400</v>
       </c>
       <c r="Q15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E17" s="3">
         <v>112800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>95100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>89800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>90200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>85600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>97700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>99400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>96000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>129400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>102900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>105300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>119100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E18" s="3">
         <v>37700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-37400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,16 +1546,17 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1534,11 +1568,11 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1546,128 +1580,134 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1900</v>
       </c>
       <c r="V20" s="3">
         <v>-1900</v>
       </c>
       <c r="W20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E21" s="3">
         <v>44900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-24200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>13700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
@@ -1682,209 +1722,218 @@
         <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
       </c>
       <c r="K22" s="3">
+        <v>800</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5000</v>
       </c>
       <c r="Q22" s="3">
         <v>5000</v>
       </c>
       <c r="R22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S22" s="3">
         <v>5500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E23" s="3">
         <v>37000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-43200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>1300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>600</v>
       </c>
       <c r="U24" s="3">
         <v>600</v>
       </c>
       <c r="V24" s="3">
+        <v>600</v>
+      </c>
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E26" s="3">
         <v>36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-42900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E27" s="3">
         <v>36100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-43100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-13000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2401,16 +2468,19 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -2422,11 +2492,11 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2434,123 +2504,129 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1900</v>
       </c>
       <c r="V32" s="3">
         <v>1900</v>
       </c>
       <c r="W32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E33" s="3">
         <v>36100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-43100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-13000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E35" s="3">
         <v>36100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-43100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-13000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2832,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E41" s="3">
         <v>123000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>181500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>185300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>182300</v>
       </c>
       <c r="J41" s="3">
         <v>182300</v>
       </c>
       <c r="K41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="L41" s="3">
         <v>165200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>118100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>122600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>130400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>119100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>107900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>99400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>106800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>74400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>97500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>106600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2951,333 +3041,348 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <v>9600</v>
       </c>
       <c r="S42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="T42" s="3">
         <v>12100</v>
       </c>
       <c r="U42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="V42" s="3">
         <v>5000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E43" s="3">
         <v>87800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>85500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>76500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>77000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>78100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>93200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>75600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>76600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>65800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>79000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>86800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>66100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>99600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E44" s="3">
         <v>71800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>66100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>65600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>59500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>64600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>54100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>55000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>66800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>67100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>66400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>65600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>79900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>78500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>77800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>79200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>314500</v>
+      </c>
+      <c r="E46" s="3">
         <v>299200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>301400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>351800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>346500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>336900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>333800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>339000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>331000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>318700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>262400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>239200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>256200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>281800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>284400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>283700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>269700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>280600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>263400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>284400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>268600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>273000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>314700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3350,156 +3455,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E48" s="3">
         <v>62000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>65700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>43200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>48800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>49500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E49" s="3">
         <v>343700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>345100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>273200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>274000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>274800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>273800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>271000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>271200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>271800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>274500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>277900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>281300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>284700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>288800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>292500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>296700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>313100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>318800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>320500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>367600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>376500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>388600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3646,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>20400</v>
       </c>
       <c r="S52" s="3">
         <v>20400</v>
       </c>
       <c r="T52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="U52" s="3">
         <v>13500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>14100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3794,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>737100</v>
+      </c>
+      <c r="E54" s="3">
         <v>720900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>726500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>704800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>693600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>687600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>680100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>682400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>676000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>664200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>612000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>593400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>616700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>644700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>623700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>632300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>623200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>644800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>636000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>661500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>697300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>711400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>766900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3924,82 +4054,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E57" s="3">
         <v>38500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>44400</v>
       </c>
       <c r="M57" s="3">
         <v>44400</v>
       </c>
       <c r="N57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="O57" s="3">
         <v>29600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>54400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>62900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>67900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>45200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>80900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4016,360 +4150,375 @@
         <v>17200</v>
       </c>
       <c r="H58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I58" s="3">
         <v>17100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>21500</v>
       </c>
       <c r="M58" s="3">
         <v>21500</v>
       </c>
       <c r="N58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="O58" s="3">
         <v>17200</v>
       </c>
       <c r="P58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>7800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>33800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
         <v>43400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>43900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>38000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>42900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E60" s="3">
         <v>99100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>106200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>80700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>79700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>99800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>69400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>70900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>86700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>66100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>83600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>129000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>116500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>106300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>157600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E61" s="3">
         <v>136500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>140800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>145100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>149400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>153600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>157900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>162200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>166500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>170800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>125100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>139200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>172300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>225700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>251400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>261000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>265700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>299000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>299700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>280400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>287000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>301600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>300900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E62" s="3">
         <v>63800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>67900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>59500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>66100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>67700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>38000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4590,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>301200</v>
+      </c>
+      <c r="E66" s="3">
         <v>299400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>314900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>311900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>296200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>296000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>295600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>305500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>311900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>321200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>284400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>283800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>321500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>363600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>365200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>371200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>392600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>399200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>418300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>443200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>438500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>443900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>496500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4988,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-253900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-290000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-318500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-345200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-367100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-385900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-401900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-414500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-425100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-433300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-447300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-460800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-469400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-476800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-469700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-476600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-456400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-477900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-470600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-427600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-414600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-406900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5284,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E76" s="3">
         <v>421600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>411600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>392900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>397300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>391600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>384400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>376900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>364100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>343000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>327700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>309600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>295200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>281200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>258500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>261100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>230600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>245700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>217700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>218300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>258800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>267500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>270400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E81" s="3">
         <v>36100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-43100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-13000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5613,22 +5811,23 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5900</v>
       </c>
       <c r="H83" s="3">
         <v>5900</v>
@@ -5637,58 +5836,61 @@
         <v>5900</v>
       </c>
       <c r="J83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E89" s="3">
         <v>43200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>41300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>22400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2700</v>
       </c>
       <c r="F91" s="3">
         <v>-2700</v>
       </c>
       <c r="G91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3000</v>
       </c>
       <c r="K91" s="3">
         <v>-3000</v>
       </c>
       <c r="L91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="M91" s="3">
         <v>-3900</v>
       </c>
       <c r="N91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-73100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>44100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>25600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,347 +662,360 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E8" s="3">
         <v>161400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>150500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>141800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>131900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>125900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>107200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>97300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>102300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>96000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>102700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>98600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>95300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>92000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>94100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>104600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>118100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E9" s="3">
         <v>50900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>44100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>38600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>42900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>43800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>54600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E10" s="3">
         <v>110500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>91100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>82800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>77200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>58400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>60800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>63500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E12" s="3">
         <v>33400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>22400</v>
       </c>
       <c r="L12" s="3">
         <v>22400</v>
       </c>
       <c r="M12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="N12" s="3">
         <v>21700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>25500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>26700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>27200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>26100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,22 +1201,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>200</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
@@ -1208,61 +1228,64 @@
         <v>200</v>
       </c>
       <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>40000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>7200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,13 +1293,13 @@
         <v>1100</v>
       </c>
       <c r="E15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="3">
         <v>1400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
@@ -1285,19 +1308,19 @@
         <v>800</v>
       </c>
       <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3">
         <v>700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
       </c>
       <c r="M15" s="3">
+        <v>600</v>
+      </c>
+      <c r="N15" s="3">
         <v>2700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3400</v>
       </c>
       <c r="O15" s="3">
         <v>3400</v>
@@ -1309,37 +1332,40 @@
         <v>3400</v>
       </c>
       <c r="R15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S15" s="3">
         <v>3700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E17" s="3">
         <v>114600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>89800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>90200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>84700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>85600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>97700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>88500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>116300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>99400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>96000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>129400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>102900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>105300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>119100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E18" s="3">
         <v>46800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-37400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,19 +1580,20 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1571,11 +1605,11 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1583,134 +1617,140 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1900</v>
       </c>
       <c r="W20" s="3">
         <v>-1900</v>
       </c>
       <c r="X20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E21" s="3">
         <v>53600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-24200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>14400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>13700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
@@ -1725,215 +1765,224 @@
         <v>700</v>
       </c>
       <c r="J22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>800</v>
       </c>
       <c r="L22" s="3">
+        <v>800</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5000</v>
       </c>
       <c r="R22" s="3">
         <v>5000</v>
       </c>
       <c r="S22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T22" s="3">
         <v>5500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E23" s="3">
         <v>45700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-43200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>1300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>600</v>
       </c>
       <c r="V24" s="3">
         <v>600</v>
       </c>
       <c r="W24" s="3">
+        <v>600</v>
+      </c>
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E26" s="3">
         <v>44500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-42900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E27" s="3">
         <v>44500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-43100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2471,19 +2538,22 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -2495,11 +2565,11 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2507,126 +2577,132 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1900</v>
       </c>
       <c r="W32" s="3">
         <v>1900</v>
       </c>
       <c r="X32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E33" s="3">
         <v>44500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-43100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E35" s="3">
         <v>44500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-43100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2919,85 +3005,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E41" s="3">
         <v>117900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>181500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>187700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>185300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>182300</v>
       </c>
       <c r="K41" s="3">
         <v>182300</v>
       </c>
       <c r="L41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="M41" s="3">
         <v>165200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>118100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>122600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>119100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>107900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>99400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>106800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>74400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>97500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>106600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3044,345 +3134,360 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <v>9600</v>
       </c>
       <c r="T42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="U42" s="3">
         <v>12100</v>
       </c>
       <c r="V42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="W42" s="3">
         <v>5000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E43" s="3">
         <v>98000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>87800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>85500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>84800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>77000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>93200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>60900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>75600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>76600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>65800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>55100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>79000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>86800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>66100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>99600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E44" s="3">
         <v>77500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>71800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>67600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>66100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>65600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>64600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>54100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>67100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>66400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>65600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>79900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>78500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>77800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>79200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E46" s="3">
         <v>314500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>299200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>301400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>351800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>346500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>336900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>333800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>339000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>331000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>318700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>262400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>239200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>256200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>281800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>284400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>283700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>269700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>280600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>263400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>284400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>268600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>273000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>314700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3458,162 +3563,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E48" s="3">
         <v>63100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>63900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>64700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>65700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>40400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>43200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>49400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>48800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>49500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E49" s="3">
         <v>342600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>343700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>345100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>273200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>274000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>274800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>273800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>271000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>271200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>271800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>274500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>277900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>281300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>284700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>288800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>292500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>296700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>313100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>318800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>320500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>367600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>376500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>388600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3766,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>16900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>20400</v>
       </c>
       <c r="T52" s="3">
         <v>20400</v>
       </c>
       <c r="U52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="V52" s="3">
         <v>13500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>14100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3920,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>758900</v>
+      </c>
+      <c r="E54" s="3">
         <v>737100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>720900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>726500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>704800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>693600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>687600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>680100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>682400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>676000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>664200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>612000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>593400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>616700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>644700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>623700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>632300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>623200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>644800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>636000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>661500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>697300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>711400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>766900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4055,90 +4185,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E57" s="3">
         <v>39300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>44400</v>
       </c>
       <c r="N57" s="3">
         <v>44400</v>
       </c>
       <c r="O57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="P57" s="3">
         <v>29600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>54400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>62900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>67900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>45200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>80900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>17200</v>
@@ -4153,372 +4287,387 @@
         <v>17200</v>
       </c>
       <c r="I58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J58" s="3">
         <v>17100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>21500</v>
       </c>
       <c r="N58" s="3">
         <v>21500</v>
       </c>
       <c r="O58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="P58" s="3">
         <v>17200</v>
       </c>
       <c r="Q58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="R58" s="3">
         <v>7800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>33800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>27700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>43900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>38000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>42900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E60" s="3">
         <v>106400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>79700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>99800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>81400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>69400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>70900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>86700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>66100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>83600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>129000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>116500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>106300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>157600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E61" s="3">
         <v>132200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>136500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>140800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>145100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>149400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>153600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>157900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>162200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>166500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>170800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>125100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>139200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>172300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>225700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>251400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>261000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>265700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>299000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>299700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>280400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>287000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>301600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>300900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E62" s="3">
         <v>62600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>67900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>58000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>59500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>66100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>67700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>38000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E66" s="3">
         <v>301200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>299400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>314900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>311900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>296200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>296000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>295600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>305500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>311900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>321200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>284400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>283800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>321500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>363600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>365200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>371200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>392600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>399200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>418300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>443200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>438500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>443900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>496500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5162,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-209400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-253900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-290000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-318500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-345200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-367100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-385900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-401900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-414500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-425100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-433300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-447300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-460800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-469400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-476800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-469700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-476600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-456400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-477900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-470600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-427600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-414600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-406900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5470,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>441700</v>
+      </c>
+      <c r="E76" s="3">
         <v>435900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>421600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>411600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>392900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>397300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>384400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>376900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>364100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>343000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>327700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>309600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>295200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>281200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>258500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>261100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>230600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>245700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>217700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>218300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>258800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>267500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>270400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E81" s="3">
         <v>44500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-43100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5812,25 +6010,26 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5900</v>
       </c>
       <c r="I83" s="3">
         <v>5900</v>
@@ -5839,58 +6038,61 @@
         <v>5900</v>
       </c>
       <c r="K83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E89" s="3">
         <v>49700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>22400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2700</v>
       </c>
       <c r="G91" s="3">
         <v>-2700</v>
       </c>
       <c r="H91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3000</v>
       </c>
       <c r="L91" s="3">
         <v>-3000</v>
       </c>
       <c r="M91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="N91" s="3">
         <v>-3900</v>
       </c>
       <c r="O91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7025,85 +7268,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-46700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-44400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>44100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7111,149 +7360,155 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-49900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,360 +662,373 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E8" s="3">
         <v>172500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>161400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>150500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>141800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>131900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>125900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>115700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>103500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>102300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>96000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>102700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>98600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>95300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>92000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>94100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>104600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>118100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E9" s="3">
         <v>53800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>80900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>52500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>44100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>38600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>42900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>43800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>54600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E10" s="3">
         <v>118700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>110500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>91100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>77200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>59300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>58400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>51200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>60800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>63500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1057,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E12" s="3">
         <v>34600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>22400</v>
       </c>
       <c r="M12" s="3">
         <v>22400</v>
       </c>
       <c r="N12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="O12" s="3">
         <v>21700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>25500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>26700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>27200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>26100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,25 +1221,28 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -1231,61 +1251,64 @@
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>40000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>7200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1296,13 +1319,13 @@
         <v>1100</v>
       </c>
       <c r="F15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
@@ -1311,19 +1334,19 @@
         <v>800</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
         <v>700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>600</v>
       </c>
       <c r="N15" s="3">
+        <v>600</v>
+      </c>
+      <c r="O15" s="3">
         <v>2700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3400</v>
       </c>
       <c r="P15" s="3">
         <v>3400</v>
@@ -1335,37 +1358,40 @@
         <v>3400</v>
       </c>
       <c r="S15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T15" s="3">
         <v>3700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E17" s="3">
         <v>123700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>104900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>95100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>90200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>86800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>85600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>97700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>88500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>116300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>99400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>96000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>129400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>102900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>105300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>119100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E18" s="3">
         <v>48800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1581,22 +1614,23 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1608,11 +1642,11 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1620,129 +1654,135 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1900</v>
       </c>
       <c r="X20" s="3">
         <v>-1900</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E21" s="3">
         <v>55200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>53600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>14400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>13700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1750,10 +1790,10 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
@@ -1768,221 +1808,230 @@
         <v>700</v>
       </c>
       <c r="K22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>800</v>
       </c>
       <c r="M22" s="3">
+        <v>800</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5000</v>
       </c>
       <c r="S22" s="3">
         <v>5000</v>
       </c>
       <c r="T22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U22" s="3">
         <v>5500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E23" s="3">
         <v>46700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-43200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>1300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>600</v>
       </c>
       <c r="W24" s="3">
         <v>600</v>
       </c>
       <c r="X24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E26" s="3">
         <v>46400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-42900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E27" s="3">
         <v>46400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-43100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2381,8 +2442,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2541,22 +2608,25 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -2568,11 +2638,11 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2580,129 +2650,135 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1900</v>
       </c>
       <c r="X32" s="3">
         <v>1900</v>
       </c>
       <c r="Y32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E33" s="3">
         <v>46400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-43100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2781,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E35" s="3">
         <v>46400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-43100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3006,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E41" s="3">
         <v>118800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>181500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>187700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>185300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>182300</v>
       </c>
       <c r="L41" s="3">
         <v>182300</v>
       </c>
       <c r="M41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="N41" s="3">
         <v>165200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>118100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>122600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>119100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>107900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>99400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>106800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>100000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>74400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>97500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>106600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3137,357 +3227,372 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>9600</v>
       </c>
       <c r="U42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="V42" s="3">
         <v>12100</v>
       </c>
       <c r="W42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="X42" s="3">
         <v>5000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E43" s="3">
         <v>106900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>87800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>93200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>75600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>76600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>65800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>55100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>79000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>86800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>66100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>99600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E44" s="3">
         <v>94000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>77500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>71800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>67600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>66100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>65600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>55000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>59700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>66800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>67100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>66400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>65600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>79900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>77500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>78500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>77800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>79200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>379200</v>
+      </c>
+      <c r="E46" s="3">
         <v>340300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>314500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>299200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>301400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>351800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>346500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>336900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>333800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>339000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>331000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>318700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>262400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>239200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>256200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>281800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>284400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>283700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>269700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>280600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>263400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>284400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>268600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>273000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>314700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3566,168 +3671,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E48" s="3">
         <v>62600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>63900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>65700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>64600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>37700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>40400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>43200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>49400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>48800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>340400</v>
+      </c>
+      <c r="E49" s="3">
         <v>341400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>342600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>343700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>345100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>273200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>274000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>274800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>273800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>271000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>271200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>271800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>274500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>277900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>281300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>284700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>288800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>292500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>296700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>313100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>318800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>320500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>367600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>376500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>388600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3886,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>20400</v>
       </c>
       <c r="U52" s="3">
         <v>20400</v>
       </c>
       <c r="V52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="W52" s="3">
         <v>13500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>14100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4046,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>798700</v>
+      </c>
+      <c r="E54" s="3">
         <v>758900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>737100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>720900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>726500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>704800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>693600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>687600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>680100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>682400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>676000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>664200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>612000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>593400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>616700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>644700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>623700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>632300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>623200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>644800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>636000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>661500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>697300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>711400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>766900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4186,88 +4316,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E57" s="3">
         <v>43600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>44400</v>
       </c>
       <c r="O57" s="3">
         <v>44400</v>
       </c>
       <c r="P57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>29600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>54400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>62900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>67900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>45200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>80900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>17200</v>
@@ -4290,384 +4424,399 @@
         <v>17200</v>
       </c>
       <c r="J58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K58" s="3">
         <v>17100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>21500</v>
       </c>
       <c r="O58" s="3">
         <v>21500</v>
       </c>
       <c r="P58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="Q58" s="3">
         <v>17200</v>
       </c>
       <c r="R58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="S58" s="3">
         <v>7800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>14100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>22200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>23200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>33800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E59" s="3">
         <v>66600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>28800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>27700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>43900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>33300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>38000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>42900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E60" s="3">
         <v>110300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>106400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>103400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>99800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>81400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>70200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>70900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>86700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>66100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>83600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>129000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>116500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>106300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>157600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E61" s="3">
         <v>148700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>132200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>136500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>140800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>145100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>149400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>153600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>157900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>162200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>166500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>170800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>125100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>139200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>172300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>225700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>251400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>261000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>265700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>299000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>299700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>280400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>287000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>301600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>300900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E62" s="3">
         <v>58300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>67900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>59500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>63100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>66100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>67700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>35900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>38000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4906,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E66" s="3">
         <v>317200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>301200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>299400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>314900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>311900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>296200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>296000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>295600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>305500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>311900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>321200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>284400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>283800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>321500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>363600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>365200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>371200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>392600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>399200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>418300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>443200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>438500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>443900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>496500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5336,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-163000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-209400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-253900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-290000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-318500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-345200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-367100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-385900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-401900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-414500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-425100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-433300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-447300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-460800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-469400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-476800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-469700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-476600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-456400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-477900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-470600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-427600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-414600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-406900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5656,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>487200</v>
+      </c>
+      <c r="E76" s="3">
         <v>441700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>435900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>421600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>411600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>392900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>397300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>391600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>384400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>376900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>364100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>343000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>327700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>309600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>295200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>281200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>258500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>261100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>230600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>245700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>217700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>218300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>258800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>267500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>270400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5816,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E81" s="3">
         <v>46400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-43100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6011,28 +6209,29 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5900</v>
       </c>
       <c r="J83" s="3">
         <v>5900</v>
@@ -6041,58 +6240,61 @@
         <v>5900</v>
       </c>
       <c r="L83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M83" s="3">
         <v>5800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6491,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E89" s="3">
         <v>63900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>24200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>22400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6601,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2700</v>
       </c>
       <c r="H91" s="3">
         <v>-2700</v>
       </c>
       <c r="I91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3000</v>
       </c>
       <c r="M91" s="3">
         <v>-3000</v>
       </c>
       <c r="N91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="O91" s="3">
         <v>-3900</v>
       </c>
       <c r="P91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6841,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7031,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7271,244 +7514,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-54900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-46700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-44400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-45800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>44100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
       </c>
       <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-49900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>25600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>19400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>LSCC</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,373 +665,386 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>184300</v>
+      </c>
+      <c r="E8" s="3">
         <v>176000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>172500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>161400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>150500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>141800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>131900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>125900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>107200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>103500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>102300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>98100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>96000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>101500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>102700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>98600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>95300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>92000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>94100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>104600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>118100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E9" s="3">
         <v>53900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>80900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>41700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>52500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>42100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>44100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>38600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>42900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>43800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>54600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E10" s="3">
         <v>122100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>110500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>91100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>77200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>59300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>58400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>56500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>53400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>51200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>60800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>63500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,91 +1074,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E12" s="3">
         <v>34500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>22400</v>
       </c>
       <c r="N12" s="3">
         <v>22400</v>
       </c>
       <c r="O12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="P12" s="3">
         <v>21700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>25500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>26700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>27200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>26100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,8 +1244,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -1254,61 +1277,64 @@
         <v>200</v>
       </c>
       <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>40000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>7200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,13 +1348,13 @@
         <v>1100</v>
       </c>
       <c r="G15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H15" s="3">
         <v>1400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
@@ -1337,19 +1363,19 @@
         <v>800</v>
       </c>
       <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3">
         <v>700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>600</v>
       </c>
       <c r="O15" s="3">
+        <v>600</v>
+      </c>
+      <c r="P15" s="3">
         <v>2700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3400</v>
       </c>
       <c r="Q15" s="3">
         <v>3400</v>
@@ -1361,37 +1387,40 @@
         <v>3400</v>
       </c>
       <c r="T15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U15" s="3">
         <v>3700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E17" s="3">
         <v>121900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>114600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>104900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>90200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>84700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>86800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>85600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>97700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>88500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>116300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>99400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>96000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>129400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>102900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>105300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>119100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E18" s="3">
         <v>54100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-37400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1615,8 +1651,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1624,16 +1661,16 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1645,11 +1682,11 @@
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1657,146 +1694,152 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1900</v>
       </c>
       <c r="Y20" s="3">
         <v>-1900</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E21" s="3">
         <v>61800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>53600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-24200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>14400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>13700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
@@ -1811,227 +1854,236 @@
         <v>700</v>
       </c>
       <c r="L22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>800</v>
       </c>
       <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5000</v>
       </c>
       <c r="T22" s="3">
         <v>5000</v>
       </c>
       <c r="U22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V22" s="3">
         <v>5500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E23" s="3">
         <v>52700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-18900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-43200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>1300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>600</v>
       </c>
       <c r="X24" s="3">
         <v>600</v>
       </c>
       <c r="Y24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2113,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E26" s="3">
         <v>51900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-42900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E27" s="3">
         <v>51900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>46400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2362,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2445,8 +2509,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2528,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2611,8 +2681,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2620,16 +2693,16 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2641,11 +2714,11 @@
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2653,132 +2726,138 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1900</v>
       </c>
       <c r="Y32" s="3">
         <v>1900</v>
       </c>
       <c r="Z32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E33" s="3">
         <v>51900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2860,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E35" s="3">
         <v>51900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3062,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3093,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E41" s="3">
         <v>145700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>117900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>131600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>181500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>182300</v>
       </c>
       <c r="M41" s="3">
         <v>182300</v>
       </c>
       <c r="N41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="O41" s="3">
         <v>165200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>176600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>118100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>97400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>122600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>130400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>119100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>107900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>99400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>106800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>74400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>97500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>106600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3230,369 +3323,384 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="U42" s="3">
         <v>9600</v>
       </c>
       <c r="V42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="W42" s="3">
         <v>12100</v>
       </c>
       <c r="X42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="Y42" s="3">
         <v>5000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E43" s="3">
         <v>101400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>106900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>87800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>77000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>64600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>93200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>64900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>37900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>75600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>76600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>65800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>55100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>79000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>86800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>66100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>99600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E44" s="3">
         <v>110400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>94000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>77500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>71800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>66100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>65600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>64600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>55000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>65000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>66800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>67100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>66400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>65600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>79900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>77500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>78500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>77800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>79200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E45" s="3">
         <v>21700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>18400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E46" s="3">
         <v>379200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>340300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>314500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>299200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>301400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>351800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>346500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>336900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>333800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>339000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>331000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>318700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>262400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>239200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>256200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>281800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>284400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>283700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>269700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>280600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>263400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>284400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>268600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>273000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>314700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3674,174 +3782,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E48" s="3">
         <v>65200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>65700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>64600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>36400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>37700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>40400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>43200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>49400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>48800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>49500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>339300</v>
+      </c>
+      <c r="E49" s="3">
         <v>340400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>341400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>342600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>343700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>345100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>273200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>274000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>274800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>273800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>271000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>271200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>271800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>274500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>277900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>281300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>284700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>288800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>292500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>296700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>313100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>318800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>320500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>367600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>376500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>388600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3923,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4006,91 +4126,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E52" s="3">
         <v>13900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>20400</v>
       </c>
       <c r="V52" s="3">
         <v>20400</v>
       </c>
       <c r="W52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="X52" s="3">
         <v>13500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>13200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>14100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4172,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>767600</v>
+      </c>
+      <c r="E54" s="3">
         <v>798700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>758900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>737100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>720900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>726500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>704800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>693600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>687600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>680100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>682400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>676000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>664200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>612000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>593400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>616700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>644700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>623700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>632300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>623200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>644800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>636000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>661500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>697300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>711400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>766900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4286,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4317,102 +4450,106 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E57" s="3">
         <v>42000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>44400</v>
       </c>
       <c r="P57" s="3">
         <v>44400</v>
       </c>
       <c r="Q57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="R57" s="3">
         <v>29600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>26200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>54400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>62900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>67900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>45200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>80900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>17200</v>
@@ -4427,396 +4564,411 @@
         <v>17200</v>
       </c>
       <c r="K58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="L58" s="3">
         <v>17100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>21500</v>
       </c>
       <c r="P58" s="3">
         <v>21500</v>
       </c>
       <c r="Q58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="R58" s="3">
         <v>17200</v>
       </c>
       <c r="S58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="T58" s="3">
         <v>7800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>22200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>15300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>33800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E59" s="3">
         <v>85300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>28800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>27700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>43900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>33300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>38000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>42900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E60" s="3">
         <v>127400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>110300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>106200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>87800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>99800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>81400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>70200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>69400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>86700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>66100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>83600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>129000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>116500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>106300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>157600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E61" s="3">
         <v>128800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>148700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>132200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>136500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>140800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>145100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>149400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>153600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>157900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>162200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>166500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>170800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>125100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>139200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>172300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>225700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>251400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>261000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>265700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>299000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>299700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>280400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>287000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>301600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>300900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E62" s="3">
         <v>55400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>58300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>67900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>58300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>58000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>59500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>66100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>67700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>33800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>35000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>35900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>38000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4898,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4981,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5064,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E66" s="3">
         <v>311600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>317200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>301200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>299400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>314900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>311900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>296200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>296000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>295600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>305500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>311900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>321200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>284400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>283800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>321500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>363600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>365200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>371200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>392600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>399200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>418300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>443200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>438500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>443900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>496500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5178,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5261,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5344,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5427,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5510,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-111100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-163000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-209400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-253900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-290000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-318500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-345200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-367100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-385900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-401900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-414500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-425100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-433300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-447300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-460800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-469400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-476800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-469700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-476600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-456400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-477900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-470600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-427600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-414600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-406900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5676,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5759,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5842,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E76" s="3">
         <v>487200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>441700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>435900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>421600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>411600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>392900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>397300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>391600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>384400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>376900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>364100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>343000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>327700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>309600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>295200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>281200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>258500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>261100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>230600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>245700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>217700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>218300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>258800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>267500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>270400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6008,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E81" s="3">
         <v>51900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6210,31 +6411,32 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>5900</v>
       </c>
       <c r="K83" s="3">
         <v>5900</v>
@@ -6243,58 +6445,61 @@
         <v>5900</v>
       </c>
       <c r="M83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6376,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6459,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6542,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6625,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6708,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E89" s="3">
         <v>82000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>63900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>24200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>22400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6822,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2700</v>
       </c>
       <c r="I91" s="3">
         <v>-2700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3000</v>
       </c>
       <c r="N91" s="3">
         <v>-3000</v>
       </c>
       <c r="O91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="P91" s="3">
         <v>-3900</v>
       </c>
       <c r="Q91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6988,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7071,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7185,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7268,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7351,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7434,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7517,253 +7763,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-42100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-54900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-44400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>44100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1000</v>
       </c>
       <c r="F101" s="3">
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E102" s="3">
         <v>27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-49900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>25600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>19400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>LSCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E8" s="3">
         <v>184300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>176000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>172500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>161400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>150500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>141800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>131900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>125900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>107200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>103500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>102300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>98100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>96000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>101500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>102700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>98600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>95300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>92000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>94100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>104600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>118100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E9" s="3">
         <v>55700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>80900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>41700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>43100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>52500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>42100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>44100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>38600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>42900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>43800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>54600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E10" s="3">
         <v>128600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>122100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>110500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>91100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>82800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>57500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>58400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>56500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>51300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>53400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>51200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>60800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>63500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,94 +1088,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E12" s="3">
         <v>35700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>22400</v>
       </c>
       <c r="O12" s="3">
         <v>22400</v>
       </c>
       <c r="P12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Q12" s="3">
         <v>21700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>25500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>26700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>27200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>26100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1247,31 +1264,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
@@ -1280,61 +1300,64 @@
         <v>200</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>40000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>7200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,13 +1374,13 @@
         <v>1100</v>
       </c>
       <c r="H15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="3">
         <v>1400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
@@ -1366,19 +1389,19 @@
         <v>800</v>
       </c>
       <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
         <v>700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>600</v>
       </c>
       <c r="O15" s="3">
         <v>600</v>
       </c>
       <c r="P15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3400</v>
       </c>
       <c r="R15" s="3">
         <v>3400</v>
@@ -1390,37 +1413,40 @@
         <v>3400</v>
       </c>
       <c r="U15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V15" s="3">
         <v>3700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E17" s="3">
         <v>125200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>114600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>89800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>90200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>84700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>86800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>85600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>97700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>88500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>116300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>99400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>96000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>129400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>102900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>105300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>119100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E18" s="3">
         <v>59100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>37700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-37400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1652,28 +1685,29 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1685,11 +1719,11 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1697,152 +1731,158 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-1900</v>
       </c>
       <c r="Z20" s="3">
         <v>-1900</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E21" s="3">
         <v>67100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>53600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>36400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-24200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>14400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>13700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
@@ -1857,233 +1897,242 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>800</v>
       </c>
       <c r="O22" s="3">
+        <v>800</v>
+      </c>
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5000</v>
       </c>
       <c r="U22" s="3">
         <v>5000</v>
       </c>
       <c r="V22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W22" s="3">
         <v>5500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E23" s="3">
         <v>58500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-18900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-43200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-12800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>1300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>600</v>
       </c>
       <c r="Y24" s="3">
         <v>600</v>
       </c>
       <c r="Z24" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-300</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E26" s="3">
         <v>55900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-7900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-42900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E27" s="3">
         <v>55900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-43100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-8200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2684,28 +2751,31 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2717,11 +2787,11 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2729,135 +2799,141 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>1900</v>
       </c>
       <c r="Z32" s="3">
         <v>1900</v>
       </c>
       <c r="AA32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E33" s="3">
         <v>55900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-43100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-8200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E35" s="3">
         <v>55900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-43100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-8200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E41" s="3">
         <v>112100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>117900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>131600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>181500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>187700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>185300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>182300</v>
       </c>
       <c r="N41" s="3">
         <v>182300</v>
       </c>
       <c r="O41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="P41" s="3">
         <v>165200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>176600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>118100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>97400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>122600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>130400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>119100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>107900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>93700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>99400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>106800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>74400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>97500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>106600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3326,381 +3416,396 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
         <v>9600</v>
       </c>
       <c r="W42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="X42" s="3">
         <v>12100</v>
       </c>
       <c r="Y42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="Z42" s="3">
         <v>5000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>10300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E43" s="3">
         <v>97800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>106900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>98000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>93200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>64900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>37900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>60900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>75600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>76600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>65800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>55100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>79000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>86800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>66100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>99600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E44" s="3">
         <v>117100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>94000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>77500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>71800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>66100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>55000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>65000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>66800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>67100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>66400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>65600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>77900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>79900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>77500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>78500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>77800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>79200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>29000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>25400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>19000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E46" s="3">
         <v>348900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>379200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>314500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>299200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>301400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>351800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>346500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>336900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>333800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>339000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>331000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>318700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>262400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>239200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>256200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>281800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>284400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>283700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>269700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>280600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>263400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>284400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>268600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>273000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>314700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3785,180 +3890,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E48" s="3">
         <v>67100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>61400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>64700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>65700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>64600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>36400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>37700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>40400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>43200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>48800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>49500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E49" s="3">
         <v>339300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>340400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>341400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>342600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>343700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>345100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>273200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>274000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>274800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>273800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>271000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>271200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>271800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>274500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>277900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>281300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>284700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>288800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>292500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>296700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>313100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>318800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>320500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>367600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>376500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>388600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4129,94 +4246,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
         <v>12300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15500</v>
-      </c>
-      <c r="V52" s="3">
-        <v>20400</v>
       </c>
       <c r="W52" s="3">
         <v>20400</v>
       </c>
       <c r="X52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Y52" s="3">
         <v>13500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>13200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>14100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>759100</v>
+      </c>
+      <c r="E54" s="3">
         <v>767600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>798700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>758900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>737100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>720900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>726500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>704800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>693600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>687600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>680100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>682400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>676000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>664200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>612000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>593400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>616700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>644700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>623700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>632300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>623200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>644800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>636000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>661500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>697300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>711400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>766900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4451,108 +4581,112 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E57" s="3">
         <v>40800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>44400</v>
       </c>
       <c r="Q57" s="3">
         <v>44400</v>
       </c>
       <c r="R57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="S57" s="3">
         <v>29600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>26200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>30400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>35500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>54400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>62900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>67900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>45200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>80900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>17200</v>
@@ -4567,408 +4701,423 @@
         <v>17200</v>
       </c>
       <c r="L58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M58" s="3">
         <v>17100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>21500</v>
       </c>
       <c r="Q58" s="3">
         <v>21500</v>
       </c>
       <c r="R58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="S58" s="3">
         <v>17200</v>
       </c>
       <c r="T58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="U58" s="3">
         <v>7800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>22200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>15300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>33800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E59" s="3">
         <v>56300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>31800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>28800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>27700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>43900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>33300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>38000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>42900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E60" s="3">
         <v>97200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>110300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>106200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>103400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>88600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>87800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>90500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>99800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>81400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>70200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>69400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>70900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>86700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>66100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>83600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>129000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>116500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>106300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>157600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E61" s="3">
         <v>103800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>128800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>148700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>132200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>136500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>140800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>145100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>149400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>153600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>157900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>162200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>166500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>170800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>125100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>139200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>172300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>225700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>251400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>261000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>265700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>299000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>299700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>280400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>287000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>301600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>300900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E62" s="3">
         <v>51700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>67900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>58000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>59500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>66100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>67700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>33800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>35000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>35900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>38000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>184300</v>
+      </c>
+      <c r="E66" s="3">
         <v>252700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>311600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>317200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>301200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>299400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>314900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>311900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>296200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>296000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>295600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>305500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>311900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>321200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>284400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>283800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>321500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>363600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>365200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>371200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>392600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>399200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>418300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>443200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>438500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>443900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>496500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-111100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-163000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-209400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-253900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-290000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-318500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-345200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-367100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-385900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-401900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-414500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-425100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-433300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-447300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-460800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-469400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-476800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-469700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-476600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-456400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-477900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-470600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-427600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-414600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-406900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>574800</v>
+      </c>
+      <c r="E76" s="3">
         <v>515000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>487200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>441700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>435900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>421600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>411600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>397300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>391600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>384400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>376900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>364100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>343000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>327700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>309600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>295200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>281200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>258500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>261100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>230600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>245700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>217700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>218300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>258800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>267500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>270400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E81" s="3">
         <v>55900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-43100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-8200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6412,34 +6610,35 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5900</v>
       </c>
       <c r="L83" s="3">
         <v>5900</v>
@@ -6448,58 +6647,61 @@
         <v>5900</v>
       </c>
       <c r="N83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E89" s="3">
         <v>44900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>82000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>24200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>22400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7046,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2700</v>
       </c>
       <c r="J91" s="3">
         <v>-2700</v>
       </c>
       <c r="K91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-3000</v>
       </c>
       <c r="O91" s="3">
         <v>-3000</v>
       </c>
       <c r="P91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="Q91" s="3">
         <v>-3900</v>
       </c>
       <c r="R91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7422,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7766,262 +8009,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-67600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-54900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>44100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-38000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1000</v>
       </c>
       <c r="G101" s="3">
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-49900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>25600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-23000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>19400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-23400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>LSCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,399 +665,412 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>192200</v>
+      </c>
+      <c r="E8" s="3">
         <v>190100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>184300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>176000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>172500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>161400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>150500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>141800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>115700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>107200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>103500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>102300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>98100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>96000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>101500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>102700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>98600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>95300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>92000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>94100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>104600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>118100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>113200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E9" s="3">
         <v>57500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>80900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>41700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>43100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>52500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>42100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>44100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>38600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>42900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>43800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>54600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E10" s="3">
         <v>132600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>128600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>122100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>118700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>110500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>91100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>82800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>57500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>54300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>58400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>56500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>51300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>53400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>51200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>60800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>63500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,97 +1102,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E12" s="3">
         <v>41700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>22400</v>
       </c>
       <c r="P12" s="3">
         <v>22400</v>
       </c>
       <c r="Q12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="R12" s="3">
         <v>21700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>25500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>26700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>27200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>26100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,34 +1284,37 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>200</v>
       </c>
       <c r="L14" s="3">
         <v>200</v>
@@ -1303,61 +1323,64 @@
         <v>200</v>
       </c>
       <c r="N14" s="3">
+        <v>200</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>17100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>40000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>7200</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1377,13 +1400,13 @@
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>1400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>800</v>
@@ -1392,19 +1415,19 @@
         <v>800</v>
       </c>
       <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3">
         <v>700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>600</v>
       </c>
       <c r="P15" s="3">
         <v>600</v>
       </c>
       <c r="Q15" s="3">
+        <v>600</v>
+      </c>
+      <c r="R15" s="3">
         <v>2700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3400</v>
       </c>
       <c r="S15" s="3">
         <v>3400</v>
@@ -1416,37 +1439,40 @@
         <v>3400</v>
       </c>
       <c r="V15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W15" s="3">
         <v>3700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>8500</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1475,186 +1501,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E17" s="3">
         <v>137000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>125200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>114600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>90200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>84700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>86800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>87900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>85600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>97700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>88500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>116300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>99400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>96000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>129400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>102900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>105300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>119100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E18" s="3">
         <v>53100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>59100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>37700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>29800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-37400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1686,31 +1719,32 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1722,11 +1756,11 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1734,158 +1768,164 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1900</v>
       </c>
       <c r="AA20" s="3">
         <v>-1900</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E21" s="3">
         <v>61600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>67100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>53600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-24200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>14400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>13700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1900,239 +1940,248 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>800</v>
       </c>
       <c r="P22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3500</v>
-      </c>
-      <c r="U22" s="3">
-        <v>5000</v>
       </c>
       <c r="V22" s="3">
         <v>5000</v>
       </c>
       <c r="W22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X22" s="3">
         <v>5500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5100</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E23" s="3">
         <v>53100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-43200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-12800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>600</v>
       </c>
       <c r="Z24" s="3">
         <v>600</v>
       </c>
       <c r="AA24" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-300</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>2500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2220,186 +2269,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E26" s="3">
         <v>50600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>55900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>51900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>46400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-42900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-6900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E27" s="3">
         <v>50600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-43100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-7300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-8200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2487,8 +2545,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2576,8 +2637,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2665,8 +2729,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2754,31 +2821,34 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -2790,11 +2860,11 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2802,138 +2872,144 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1900</v>
       </c>
       <c r="AA32" s="3">
         <v>1900</v>
       </c>
       <c r="AB32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E33" s="3">
         <v>50600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-43100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-7300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-8200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3021,191 +3097,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E35" s="3">
         <v>50600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-43100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-7300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-8200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3237,8 +3322,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3270,97 +3356,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E41" s="3">
         <v>103800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>131600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>181500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>187700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>185300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>182300</v>
       </c>
       <c r="O41" s="3">
         <v>182300</v>
       </c>
       <c r="P41" s="3">
+        <v>182300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>165200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>176600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>118100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>97400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>122600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>130400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>119100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>107900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>93700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>99400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>106800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>100000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>74400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>97500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>106600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3419,393 +3509,408 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="W42" s="3">
         <v>9600</v>
       </c>
       <c r="X42" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="Y42" s="3">
         <v>12100</v>
       </c>
       <c r="Z42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="AA42" s="3">
         <v>5000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>12000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>10300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E43" s="3">
         <v>104800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>97800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>101400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>106900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>98000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>87800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>93200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>64900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>37900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>60900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>75600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>76600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>65800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>55100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>79000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>86800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>66100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>99600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E44" s="3">
         <v>111500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>117100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>94000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>77500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>71800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>55000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>65000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>66800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>67100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>66400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>65600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>77900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>79900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>77500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>78500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>77800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>79200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E45" s="3">
         <v>24500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>25400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>18400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>19700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>19000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>360700</v>
+      </c>
+      <c r="E46" s="3">
         <v>344600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>348900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>379200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>340300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>314500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>299200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>301400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>351800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>346500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>336900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>333800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>339000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>331000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>318700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>262400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>239200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>256200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>281800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>284400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>283700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>269700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>280600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>263400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>284400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>268600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>273000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>314700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>292000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3893,186 +3998,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E48" s="3">
         <v>65000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>63100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>61800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>61400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>64700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>65700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>64600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>36400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>37700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>40400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>43200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>49400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>48800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>49500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>337300</v>
+      </c>
+      <c r="E49" s="3">
         <v>338100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>339300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>340400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>341400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>342600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>343700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>345100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>273200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>274000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>274800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>273800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>271000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>271200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>271800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>274500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>277900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>281300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>284700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>288800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>292500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>296700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>313100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>318800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>320500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>367600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>376500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>388600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>397100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4160,8 +4274,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4249,97 +4366,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15500</v>
-      </c>
-      <c r="W52" s="3">
-        <v>20400</v>
       </c>
       <c r="X52" s="3">
         <v>20400</v>
       </c>
       <c r="Y52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Z52" s="3">
         <v>13500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>13400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>13200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>14100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4427,97 +4550,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>779600</v>
+      </c>
+      <c r="E54" s="3">
         <v>759100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>767600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>798700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>758900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>737100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>720900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>726500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>704800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>693600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>687600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>680100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>682400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>676000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>664200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>612000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>593400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>616700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>644700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>623700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>632300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>623200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>644800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>636000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>661500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>697300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>711400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>766900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>756300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4549,8 +4678,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4582,97 +4712,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E57" s="3">
         <v>41300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>44400</v>
       </c>
       <c r="R57" s="3">
         <v>44400</v>
       </c>
       <c r="S57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="T57" s="3">
         <v>29600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>30400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>54400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>62900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>67900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>45200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>80900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4682,14 +4816,14 @@
       <c r="E58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>17200</v>
@@ -4704,420 +4838,435 @@
         <v>17200</v>
       </c>
       <c r="M58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="N58" s="3">
         <v>17100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>21500</v>
       </c>
       <c r="R58" s="3">
         <v>21500</v>
       </c>
       <c r="S58" s="3">
-        <v>17200</v>
+        <v>21500</v>
       </c>
       <c r="T58" s="3">
         <v>17200</v>
       </c>
       <c r="U58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="V58" s="3">
         <v>7800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>14100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>22200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>15300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>23200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>33800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E59" s="3">
         <v>50700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>31800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>28800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>27700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>43900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>33300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>38000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>42900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E60" s="3">
         <v>92000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>97200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>110300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>106400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>106200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>103400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>80700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>87800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>90500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>99800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>81400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>69400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>70900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>86700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>66100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>83600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>129000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>116500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>106300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>157600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>135200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>43900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>103800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>128800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>148700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>132200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>136500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>140800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>145100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>149400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>153600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>157900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>162200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>166500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>170800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>125100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>139200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>172300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>225700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>251400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>261000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>265700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>299000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>299700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>280400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>287000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>301600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>300900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>307700</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E62" s="3">
         <v>48500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>58300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>61700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>58000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>59500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>63100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>66100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>67700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>44500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>35000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>33800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>35000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>35900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>38000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5205,8 +5354,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5294,8 +5446,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5383,97 +5538,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E66" s="3">
         <v>184300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>252700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>311600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>317200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>301200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>299400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>314900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>311900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>296200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>296000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>295600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>305500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>311900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>321200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>284400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>283800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>321500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>363600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>365200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>371200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>392600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>399200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>418300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>443200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>438500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>443900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>496500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>482600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5505,8 +5666,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5594,8 +5756,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5683,8 +5848,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5772,8 +5940,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5861,97 +6032,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-111100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-163000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-209400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-253900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-290000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-318500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-345200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-367100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-385900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-401900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-414500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-425100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-433300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-447300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-460800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-469400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-476800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-469700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-476600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-456400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-477900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-470600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-427600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-414600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-406900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-398800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6039,8 +6216,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6128,8 +6308,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6217,97 +6400,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>626200</v>
+      </c>
+      <c r="E76" s="3">
         <v>574800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>515000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>487200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>441700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>435900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>421600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>411600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>392900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>397300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>391600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>384400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>376900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>364100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>343000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>327700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>309600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>295200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>281200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>258500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>261100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>230600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>245700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>217700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>218300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>258800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>267500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>270400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>273700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6395,191 +6584,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E81" s="3">
         <v>50600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-43100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-7300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-8200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-12400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6611,37 +6809,38 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5900</v>
       </c>
       <c r="M83" s="3">
         <v>5900</v>
@@ -6650,58 +6849,61 @@
         <v>5900</v>
       </c>
       <c r="O83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6789,8 +6991,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6878,8 +7083,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6967,8 +7175,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7056,8 +7267,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7145,97 +7359,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E89" s="3">
         <v>70600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>82000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>63900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>24200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>22400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7267,97 +7487,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2700</v>
       </c>
       <c r="K91" s="3">
         <v>-2700</v>
       </c>
       <c r="L91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3000</v>
       </c>
       <c r="P91" s="3">
         <v>-3000</v>
       </c>
       <c r="Q91" s="3">
-        <v>-3900</v>
+        <v>-3000</v>
       </c>
       <c r="R91" s="3">
         <v>-3900</v>
       </c>
       <c r="S91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7445,8 +7669,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7534,97 +7761,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-73100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7656,8 +7889,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7745,8 +7979,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7834,8 +8071,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7923,8 +8163,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8012,271 +8255,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-71900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-67600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-54900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-46700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-44400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>44100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-45300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
       </c>
       <c r="H101" s="3">
         <v>-1000</v>
       </c>
       <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-49900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>25600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-23000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>19400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-23400</v>
       </c>
     </row>
